--- a/06_Statistical_Preparation/KFactors_by_coupling/tau_tau.xlsx
+++ b/06_Statistical_Preparation/KFactors_by_coupling/tau_tau.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crisf\Downloads\Nueva carpeta (7)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A038A8FB-901E-442B-B2DE-EB644630CD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63057220-80F8-44EB-B5A0-681798533B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{936B0774-7D29-4A9D-A525-91C1BDE09DC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{936B0774-7D29-4A9D-A525-91C1BDE09DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -136,11 +162,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -159,6 +211,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,132 +535,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85D8C1F-0C9C-4324-9C31-4CAB11EE0E07}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:G10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2">
+      <c r="B1" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C1" s="2">
         <v>1250</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>1500</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>1750</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>2000</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2250</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>2500</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1.17E-2</v>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4.9028703972165844E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>2.3800000000000002E-2</v>
+        <v>1.1666666666666667E-2</v>
       </c>
       <c r="D2" s="4">
-        <v>4.4600000000000001E-2</v>
+        <v>2.3843514070006865E-2</v>
       </c>
       <c r="E2" s="4">
-        <v>7.7399999999999997E-2</v>
+        <v>4.4550958627648837E-2</v>
       </c>
       <c r="F2" s="4">
-        <v>0.1226</v>
+        <v>7.7406931964056486E-2</v>
       </c>
       <c r="G2" s="4">
-        <v>0.18920000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1.37E-2</v>
+        <v>0.12264665757162346</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.1891780256092524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>8.3241519280950992E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>2.4E-2</v>
+        <v>1.3727891156462585E-2</v>
       </c>
       <c r="D3" s="4">
-        <v>4.2999999999999997E-2</v>
+        <v>2.4008236101578585E-2</v>
       </c>
       <c r="E3" s="4">
-        <v>7.2400000000000006E-2</v>
+        <v>4.301210898082744E-2</v>
       </c>
       <c r="F3" s="4">
-        <v>0.1166</v>
+        <v>7.2400513478818998E-2</v>
       </c>
       <c r="G3" s="4">
-        <v>0.17610000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>9.9900000000000003E-2</v>
+        <v>0.11664392905866303</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.17606361007847995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>9.8579298347347064E-2</v>
       </c>
       <c r="C4" s="4">
-        <v>0.1052</v>
+        <v>9.9931972789115656E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>0.1132</v>
+        <v>0.10524365133836651</v>
       </c>
       <c r="E4" s="4">
-        <v>0.13650000000000001</v>
+        <v>0.11324419778002018</v>
       </c>
       <c r="F4" s="4">
-        <v>0.16930000000000001</v>
+        <v>0.13654257595207531</v>
       </c>
       <c r="G4" s="4">
-        <v>0.2185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.52339999999999998</v>
+        <v>0.16930422919508867</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.21850475010326309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.52218034212815312</v>
       </c>
       <c r="C5" s="4">
-        <v>0.48959999999999998</v>
+        <v>0.52340136054421771</v>
       </c>
       <c r="D5" s="4">
-        <v>0.52370000000000005</v>
+        <v>0.48963623884694579</v>
       </c>
       <c r="E5" s="4">
-        <v>0.52329999999999999</v>
+        <v>0.52371342078708372</v>
       </c>
       <c r="F5" s="4">
-        <v>0.55249999999999999</v>
+        <v>0.52332049636285838</v>
       </c>
       <c r="G5" s="4">
-        <v>0.5796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.55245566166439297</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.57961586121437425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1.8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
       <c r="C6" s="6">
@@ -617,97 +693,112 @@
       <c r="G6" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1.6932</v>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1.6755581327921136</v>
       </c>
       <c r="C7" s="4">
-        <v>1.6953</v>
+        <v>1.6931972789115648</v>
       </c>
       <c r="D7" s="4">
-        <v>1.7060999999999999</v>
+        <v>1.6952642415923129</v>
       </c>
       <c r="E7" s="4">
-        <v>1.7099</v>
+        <v>1.7061049445005043</v>
       </c>
       <c r="F7" s="4">
-        <v>1.7190000000000001</v>
+        <v>1.7098844672657254</v>
       </c>
       <c r="G7" s="4">
-        <v>1.7255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4.0251999999999999</v>
+        <v>1.7189631650750341</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.7255266418835191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4.1403305305885763</v>
       </c>
       <c r="C8" s="4">
-        <v>4.2430000000000003</v>
+        <v>4.0251700680272116</v>
       </c>
       <c r="D8" s="4">
-        <v>4.2809999999999997</v>
+        <v>4.2429649965682907</v>
       </c>
       <c r="E8" s="4">
-        <v>4.3003999999999998</v>
+        <v>4.2810292633703328</v>
       </c>
       <c r="F8" s="4">
-        <v>4.2809999999999997</v>
+        <v>4.3003851091142495</v>
       </c>
       <c r="G8" s="4">
-        <v>4.2409999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8.8163</v>
+        <v>4.2810368349249659</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4.2410161090458489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8.669179472310816</v>
       </c>
       <c r="C9" s="4">
-        <v>8.9128000000000007</v>
+        <v>8.8163265306122458</v>
       </c>
       <c r="D9" s="4">
-        <v>9.0212000000000003</v>
+        <v>8.9128345916266305</v>
       </c>
       <c r="E9" s="4">
-        <v>9.0542999999999996</v>
+        <v>9.0211907164480305</v>
       </c>
       <c r="F9" s="4">
-        <v>9.0859000000000005</v>
+        <v>9.0543431750106986</v>
       </c>
       <c r="G9" s="4">
-        <v>9.0366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.0859481582537533</v>
+      </c>
+      <c r="H9" s="4">
+        <v>9.036555142503099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3.5</v>
       </c>
-      <c r="B10" s="4">
-        <v>16.401399999999999</v>
+      <c r="B10" s="8">
+        <v>16.036532328211077</v>
       </c>
       <c r="C10" s="4">
-        <v>16.527100000000001</v>
+        <v>16.401360544217688</v>
       </c>
       <c r="D10" s="4">
-        <v>16.7104</v>
+        <v>16.527110501029512</v>
       </c>
       <c r="E10" s="4">
-        <v>16.8935</v>
+        <v>16.71039354187689</v>
       </c>
       <c r="F10" s="4">
-        <v>17.066800000000001</v>
+        <v>16.893453145057766</v>
       </c>
       <c r="G10" s="4">
-        <v>16.924800000000001</v>
+        <v>17.066848567530695</v>
+      </c>
+      <c r="H10" s="4">
+        <v>16.924824452705494</v>
       </c>
     </row>
   </sheetData>
